--- a/Data/g20.2.xlsx
+++ b/Data/g20.2.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,223 +365,298 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IDHM</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.612</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31/12/2000</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.727</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31/12/2010</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.747</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.753</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.761</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.767</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.765</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.776</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.778</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.782</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.787</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.777</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.724</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.77</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.548</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.741</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +667,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.667</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31/12/2000</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.548</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +687,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6860000000000001</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>31/12/2010</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.667</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +707,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6919999999999999</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +727,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.702</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +747,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.708</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.702</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +767,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.706</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.708</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +787,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.714</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.706</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +807,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.718</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>0.714</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +827,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.721</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.718</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +847,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.727</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.721</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +867,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.725</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.727</v>
       </c>
     </row>
     <row r="27">
@@ -833,209 +887,339 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.714</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.725</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.518</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.665</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.6899999999999999</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>31/12/2000</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.612</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.7</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>31/12/2010</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.727</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.71</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.747</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.6899999999999999</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.753</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.6899999999999999</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.7</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>0.767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.702</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0.765</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.718</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0.776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.717</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>0.778</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.724</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0.782</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.712</v>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>IDHM</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0.798</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>